--- a/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="241">
   <si>
     <t>提交id</t>
   </si>
@@ -95,7 +95,7 @@
     <t>我承诺本次执行及接下来的问卷填写均真实有效，公平公正</t>
   </si>
   <si>
-    <t>1-1店外环境是否符合要求？(单选）</t>
+    <t>1-1外观形象要求？(单选）</t>
   </si>
   <si>
     <t>1-1分值</t>
@@ -114,7 +114,7 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>2-1店外设施是否符合要求？(单选）</t>
+    <t>2-1店堂环境是否符合要求？(单选）</t>
   </si>
   <si>
     <t>2-1分值</t>
@@ -133,13 +133,23 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>3-1进店初步感受是否符合要求？(单选）</t>
+    <t>3-1门店内是否有卫生间？</t>
+  </si>
+  <si>
+    <t>3-2卫生间是否符合要求？(单选）</t>
   </si>
   <si>
     <t>3-1分值</t>
   </si>
   <si>
-    <t>3-2不符合要求的原因是？(多选）</t>
+    <t>3-1检测中共有几处不符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>3-1得分</t>
+  </si>
+  <si>
+    <t>第3题
+[如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
     <t>4-1进店初步感受是否符合要求？(单选）</t>
@@ -774,10 +784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -803,9 +813,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,99 +903,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,25 +927,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -967,187 +977,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,17 +1214,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,8 +1246,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,22 +1282,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,10 +1302,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1304,136 +1314,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1810,10 +1820,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DI4"/>
+  <dimension ref="A1:DL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
-      <selection activeCell="DI6" sqref="DI6"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1821,13 +1831,13 @@
     <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
     <col min="14" max="14" width="12.1111111111111" customWidth="1"/>
     <col min="26" max="26" width="13.7777777777778" customWidth="1"/>
-    <col min="82" max="83" width="18.6666666666667" customWidth="1"/>
-    <col min="87" max="87" width="13.1111111111111" customWidth="1"/>
-    <col min="107" max="107" width="15.3333333333333" customWidth="1"/>
-    <col min="108" max="109" width="14.3333333333333" customWidth="1"/>
+    <col min="85" max="86" width="18.6666666666667" customWidth="1"/>
+    <col min="90" max="90" width="13.1111111111111" customWidth="1"/>
+    <col min="110" max="110" width="15.3333333333333" customWidth="1"/>
+    <col min="111" max="112" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:113">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:116">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1951,22 +1961,22 @@
       <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV1" s="8" t="s">
@@ -1999,10 +2009,10 @@
       <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="8" t="s">
@@ -2023,7 +2033,7 @@
       <c r="BM1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="8" t="s">
@@ -2032,7 +2042,7 @@
       <c r="BP1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>68</v>
       </c>
       <c r="BR1" s="8" t="s">
@@ -2041,7 +2051,7 @@
       <c r="BS1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BT1" s="8" t="s">
         <v>71</v>
       </c>
       <c r="BU1" s="8" t="s">
@@ -2050,7 +2060,7 @@
       <c r="BV1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="6" t="s">
         <v>74</v>
       </c>
       <c r="BX1" s="8" t="s">
@@ -2068,25 +2078,25 @@
       <c r="CB1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CC1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CD1" s="8" t="s">
         <v>81</v>
       </c>
       <c r="CE1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="CH1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CI1" s="8" t="s">
         <v>86</v>
       </c>
       <c r="CJ1" s="8" t="s">
@@ -2095,7 +2105,7 @@
       <c r="CK1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="7" t="s">
         <v>89</v>
       </c>
       <c r="CM1" s="8" t="s">
@@ -2104,7 +2114,7 @@
       <c r="CN1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CO1" s="8" t="s">
         <v>92</v>
       </c>
       <c r="CP1" s="8" t="s">
@@ -2113,13 +2123,13 @@
       <c r="CQ1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CS1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CT1" s="6" t="s">
         <v>97</v>
       </c>
       <c r="CU1" s="8" t="s">
@@ -2128,7 +2138,7 @@
       <c r="CV1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CW1" s="7" t="s">
         <v>100</v>
       </c>
       <c r="CX1" s="8" t="s">
@@ -2141,13 +2151,13 @@
         <v>103</v>
       </c>
       <c r="DA1" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="7" t="s">
         <v>105</v>
+      </c>
+      <c r="DC1" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="DD1" s="8" t="s">
         <v>106</v>
@@ -2155,7 +2165,7 @@
       <c r="DE1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="6" t="s">
+      <c r="DF1" s="7" t="s">
         <v>108</v>
       </c>
       <c r="DG1" s="8" t="s">
@@ -2164,144 +2174,153 @@
       <c r="DH1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DI1" s="6" t="s">
         <v>111</v>
+      </c>
+      <c r="DJ1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:113">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:116">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>156</v>
@@ -2509,11 +2528,20 @@
       </c>
       <c r="DI3" s="1" t="s">
         <v>224</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2543,42 +2571,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>提交id</t>
   </si>
@@ -95,7 +95,7 @@
     <t>我承诺本次执行及接下来的问卷填写均真实有效，公平公正</t>
   </si>
   <si>
-    <t>1-1外观形象要求？(单选）</t>
+    <t>1-1外观形象是否符合要求？(单选）</t>
   </si>
   <si>
     <t>1-1分值</t>
@@ -104,7 +104,7 @@
     <t>1-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>1-3检测中共有几处不符合要求？(单选）</t>
+    <t>1-3几起不合格？(单选）</t>
   </si>
   <si>
     <t>1-3扣分</t>
@@ -123,7 +123,7 @@
     <t>2-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>2-3检测中共有几处不符合要求？(单选）</t>
+    <t>2-3几起不合格？(单选）</t>
   </si>
   <si>
     <t>2-3得分</t>
@@ -133,26 +133,19 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>3-1门店内是否有卫生间？</t>
+    <t>3-1门店内是否有卫生间？(单选）</t>
+  </si>
+  <si>
+    <t>3-1分值</t>
   </si>
   <si>
     <t>3-2卫生间是否符合要求？(单选）</t>
   </si>
   <si>
-    <t>3-1分值</t>
-  </si>
-  <si>
-    <t>3-1检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>3-1得分</t>
-  </si>
-  <si>
-    <t>第3题
-[如系统可计算，就直接计算出分数]</t>
-  </si>
-  <si>
-    <t>4-1进店初步感受是否符合要求？(单选）</t>
+    <t>3-3不符合要求的原因是？(多选）</t>
+  </si>
+  <si>
+    <t>4-1商品陈列是否符合要求？(单选）</t>
   </si>
   <si>
     <t>4-1分值</t>
@@ -161,7 +154,7 @@
     <t>4-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>5-1店内天花板及地面是否符合要求？(单选）</t>
+    <t>5-1仪表仪容是否符合要求？(单选）</t>
   </si>
   <si>
     <t>5-1分值</t>
@@ -170,7 +163,7 @@
     <t>5-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>6-1店内天花板及地面是否符合要求？(单选）</t>
+    <t>6-1行为规范是否符合要求？(单选）</t>
   </si>
   <si>
     <t>6-1分值</t>
@@ -179,7 +172,7 @@
     <t>6-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>7-1柜台区域是否符合要求？(单选）</t>
+    <t>7-1接待礼仪是否符合要求？(单选）</t>
   </si>
   <si>
     <t>7-1分值</t>
@@ -188,7 +181,7 @@
     <t>7-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>8-1速食台及关东煮区域是否符合要求？(单选）</t>
+    <t>8-1接待礼仪是否符合要求？(单选）</t>
   </si>
   <si>
     <t>8-1分值</t>
@@ -197,19 +190,16 @@
     <t>8-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>9-1门店内有无休闲区？</t>
-  </si>
-  <si>
-    <t>9-2休闲区域是否符合要求？(单选）</t>
+    <t>9-1接待礼仪是否符合要求？(单选）</t>
+  </si>
+  <si>
+    <t>9-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
     <t>9-2分值</t>
   </si>
   <si>
-    <t>9-3不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>10-1货架、风幕柜、冷冻柜是否符合要求？(单选）</t>
+    <t>10-1销售人员的销售能力是否符合要求？(单选）</t>
   </si>
   <si>
     <t>10-1分值</t>
@@ -218,7 +208,7 @@
     <t>10-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>10-3检测中共有几处不符合要求？(单选）</t>
+    <t>10-3几人不合格？(单选）</t>
   </si>
   <si>
     <t>10-3得分</t>
@@ -228,7 +218,7 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>11-1货架、风幕柜、冷冻柜是否符合要求？(单选）</t>
+    <t>11-1达成销售后是否符合要求？(单选）</t>
   </si>
   <si>
     <t>11-1分值</t>
@@ -237,7 +227,7 @@
     <t>11-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>12-1洗手池是否符合要求？(单选）</t>
+    <t>12-1收银规范是否符合要求？(单选）</t>
   </si>
   <si>
     <t>12-1分值</t>
@@ -246,7 +236,7 @@
     <t>12-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>13-1安全管理是否符合要求？(单选）</t>
+    <t>13-1商品安全是否符合要求？(单选）</t>
   </si>
   <si>
     <t>13-1分值</t>
@@ -255,7 +245,7 @@
     <t>13-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>14-1价签管理是否符合要求？(单选）</t>
+    <t>14-1消防安全是否符合要求？(单选）</t>
   </si>
   <si>
     <t>14-1分值</t>
@@ -264,7 +254,7 @@
     <t>14-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>14-3检测中共有几处不符合要求？(单选）</t>
+    <t>114-3几起不合格？(单选）</t>
   </si>
   <si>
     <t>14-3得分</t>
@@ -274,7 +264,7 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>15-1水果蔬菜是否符合要求？(单选）</t>
+    <t>15-1消防安全是否符合要求？(单选）</t>
   </si>
   <si>
     <t>15-1分值</t>
@@ -283,7 +273,7 @@
     <t>15-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>15-3检测中共有几处不符合要求？(单选）</t>
+    <t>15-3几起不合格？(单选）</t>
   </si>
   <si>
     <t>15-3得分</t>
@@ -293,7 +283,7 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>16-1冰淇淋柜是否符合要求？(单选）</t>
+    <t>16-1各类宣传是否符合要求？(单选）</t>
   </si>
   <si>
     <t>16-1分值</t>
@@ -302,7 +292,7 @@
     <t>16-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>16-3检测中共有几处不符合要求？(单选）</t>
+    <t>16-3几起不合格？(单选）</t>
   </si>
   <si>
     <t>16-3得分</t>
@@ -312,7 +302,7 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>17-1风幕柜是否符合要求？(单选）</t>
+    <t>17-1宣传规范是否符合要求？(单选）</t>
   </si>
   <si>
     <t>17-1分值</t>
@@ -328,7 +318,7 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>18-1饮料柜是否符合要求？(单选）</t>
+    <t>18-1商品安全是否符合要求？(单选）</t>
   </si>
   <si>
     <t>18-1分值</t>
@@ -337,13 +327,16 @@
     <t>18-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
-    <t>19-1收银台热食是否符合要求？(单选）</t>
+    <t>19-1渠道公示是否符合要求？(单选）</t>
   </si>
   <si>
     <t>19-1分值</t>
   </si>
   <si>
     <t>19-2不符合要求的原因是？(多选）</t>
+  </si>
+  <si>
+    <t>19-3几起不合格？(单选）</t>
   </si>
   <si>
     <t>19-3得分</t>
@@ -353,19 +346,13 @@
 [如系统可计算，就直接计算出分数]</t>
   </si>
   <si>
-    <t>20-1收银台热食是否符合要求？(单选）</t>
+    <t>20-1违规销售是否符合要求？(单选）</t>
   </si>
   <si>
     <t>20-1分值</t>
   </si>
   <si>
     <t>20-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>20-3检测中共有几处不符合要求？(单选）</t>
-  </si>
-  <si>
-    <t>20-3得分</t>
   </si>
   <si>
     <t>第20题
@@ -515,12 +502,15 @@
     <t>${li.topic2Fraction}</t>
   </si>
   <si>
+    <t>${li.trough2}</t>
+  </si>
+  <si>
+    <t>${li.th3mark}</t>
+  </si>
+  <si>
     <t>${li.topic3One}</t>
   </si>
   <si>
-    <t>${li.th3mark}</t>
-  </si>
-  <si>
     <t>${li.topic3Two}</t>
   </si>
   <si>
@@ -578,9 +568,6 @@
     <t>${li.th9mark}</t>
   </si>
   <si>
-    <t>${li.topic9Three}</t>
-  </si>
-  <si>
     <t>${li.topic10One}</t>
   </si>
   <si>
@@ -729,12 +716,6 @@
   </si>
   <si>
     <t>${li.topic20Two}</t>
-  </si>
-  <si>
-    <t>${li.topic20Three}</t>
-  </si>
-  <si>
-    <t>${li.th20sorce}</t>
   </si>
   <si>
     <t>${li.topic20Fraction}</t>
@@ -784,10 +765,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -814,7 +795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,22 +803,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,7 +825,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -868,7 +841,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,22 +881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,21 +897,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -941,9 +905,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,9 +928,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -977,187 +958,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,17 +1180,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,11 +1202,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,30 +1214,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,6 +1234,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1296,16 +1262,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,136 +1295,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1820,10 +1801,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DL4"/>
+  <dimension ref="A1:DG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="CV9" sqref="CV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1831,13 +1812,13 @@
     <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
     <col min="14" max="14" width="12.1111111111111" customWidth="1"/>
     <col min="26" max="26" width="13.7777777777778" customWidth="1"/>
-    <col min="85" max="86" width="18.6666666666667" customWidth="1"/>
-    <col min="90" max="90" width="13.1111111111111" customWidth="1"/>
-    <col min="110" max="110" width="15.3333333333333" customWidth="1"/>
-    <col min="111" max="112" width="14.3333333333333" customWidth="1"/>
+    <col min="82" max="83" width="18.6666666666667" customWidth="1"/>
+    <col min="87" max="87" width="13.1111111111111" customWidth="1"/>
+    <col min="107" max="107" width="15.3333333333333" customWidth="1"/>
+    <col min="108" max="109" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:116">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:111">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1961,19 +1942,19 @@
       <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
@@ -1982,40 +1963,40 @@
       <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
       <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="8" t="s">
@@ -2033,7 +2014,7 @@
       <c r="BM1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="7" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="8" t="s">
@@ -2042,7 +2023,7 @@
       <c r="BP1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="BR1" s="8" t="s">
@@ -2051,7 +2032,7 @@
       <c r="BS1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="6" t="s">
         <v>71</v>
       </c>
       <c r="BU1" s="8" t="s">
@@ -2060,7 +2041,7 @@
       <c r="BV1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BW1" s="8" t="s">
         <v>74</v>
       </c>
       <c r="BX1" s="8" t="s">
@@ -2075,28 +2056,28 @@
       <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CC1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CD1" s="6" t="s">
         <v>81</v>
       </c>
       <c r="CE1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CF1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CG1" s="8" t="s">
         <v>84</v>
       </c>
       <c r="CH1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="7" t="s">
         <v>86</v>
       </c>
       <c r="CJ1" s="8" t="s">
@@ -2105,7 +2086,7 @@
       <c r="CK1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CL1" s="8" t="s">
         <v>89</v>
       </c>
       <c r="CM1" s="8" t="s">
@@ -2114,7 +2095,7 @@
       <c r="CN1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="7" t="s">
         <v>92</v>
       </c>
       <c r="CP1" s="8" t="s">
@@ -2123,13 +2104,13 @@
       <c r="CQ1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CR1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CS1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CT1" s="7" t="s">
         <v>97</v>
       </c>
       <c r="CU1" s="8" t="s">
@@ -2138,7 +2119,7 @@
       <c r="CV1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CW1" s="8" t="s">
         <v>100</v>
       </c>
       <c r="CX1" s="8" t="s">
@@ -2156,392 +2137,362 @@
       <c r="DB1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DC1" s="7" t="s">
         <v>106</v>
       </c>
       <c r="DD1" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DF1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="6" t="s">
+      <c r="DG1" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="DI1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:111">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:116">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="W3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="AA3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AC3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AD3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DH3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DI3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2571,42 +2522,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>提交id</t>
   </si>
@@ -56,28 +56,10 @@
     <t>神客姓名</t>
   </si>
   <si>
-    <t>收银员姓名（如无法看清楚姓名描述体貌特征）</t>
-  </si>
-  <si>
     <t>进店时店内员工人数</t>
   </si>
   <si>
     <t>店内消费人数（不含神客）</t>
-  </si>
-  <si>
-    <t>购买商品</t>
-  </si>
-  <si>
-    <t>花费金额</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>是否地铁店</t>
-  </si>
-  <si>
-    <t>支付方式</t>
   </si>
   <si>
     <t>视频链接</t>
@@ -430,28 +412,10 @@
     <t>${li.personname}</t>
   </si>
   <si>
-    <t>${li.cashiername}</t>
-  </si>
-  <si>
     <t>${li.populationqty}</t>
   </si>
   <si>
     <t>${li.consumeqty}</t>
-  </si>
-  <si>
-    <t>${li.commodity}</t>
-  </si>
-  <si>
-    <t>${li.money}</t>
-  </si>
-  <si>
-    <t>${li.weather}</t>
-  </si>
-  <si>
-    <t>${li.metro}</t>
-  </si>
-  <si>
-    <t>${li.payment}</t>
   </si>
   <si>
     <t>${li.vedio}</t>
@@ -765,10 +729,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -794,8 +758,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,6 +880,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -825,23 +895,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,97 +906,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -958,187 +922,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,6 +1144,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1200,54 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1262,31 +1241,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,136 +1259,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,24 +1765,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DG4"/>
+  <dimension ref="A1:DA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="CV9" sqref="CV9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="12.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="13.7777777777778" customWidth="1"/>
-    <col min="82" max="83" width="18.6666666666667" customWidth="1"/>
-    <col min="87" max="87" width="13.1111111111111" customWidth="1"/>
-    <col min="107" max="107" width="15.3333333333333" customWidth="1"/>
-    <col min="108" max="109" width="14.3333333333333" customWidth="1"/>
+    <col min="20" max="20" width="13.7777777777778" customWidth="1"/>
+    <col min="76" max="77" width="18.6666666666667" customWidth="1"/>
+    <col min="81" max="81" width="13.1111111111111" customWidth="1"/>
+    <col min="101" max="101" width="15.3333333333333" customWidth="1"/>
+    <col min="102" max="103" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:111">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:105">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1876,37 +1839,37 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="6" t="s">
@@ -1915,43 +1878,43 @@
       <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="8" t="s">
@@ -1975,10 +1938,10 @@
       <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="BC1" s="8" t="s">
@@ -1993,10 +1956,10 @@
       <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="8" t="s">
@@ -2014,7 +1977,7 @@
       <c r="BM1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="6" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="8" t="s">
@@ -2032,19 +1995,19 @@
       <c r="BS1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BT1" s="8" t="s">
         <v>71</v>
       </c>
       <c r="BU1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="6" t="s">
         <v>75</v>
       </c>
       <c r="BY1" s="6" t="s">
@@ -2056,13 +2019,13 @@
       <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CB1" s="6" t="s">
         <v>79</v>
       </c>
       <c r="CC1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CD1" s="8" t="s">
         <v>81</v>
       </c>
       <c r="CE1" s="6" t="s">
@@ -2089,19 +2052,19 @@
       <c r="CL1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CN1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CO1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CP1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>94</v>
       </c>
       <c r="CR1" s="8" t="s">
@@ -2110,7 +2073,7 @@
       <c r="CS1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CT1" s="8" t="s">
         <v>97</v>
       </c>
       <c r="CU1" s="8" t="s">
@@ -2119,7 +2082,7 @@
       <c r="CV1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CW1" s="7" t="s">
         <v>100</v>
       </c>
       <c r="CX1" s="8" t="s">
@@ -2128,371 +2091,335 @@
       <c r="CY1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="CZ1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DA1" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="DB1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:105">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:111">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="P3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Y3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="Z3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="AA3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="AB3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="AC3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AE3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AF3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="DB3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2522,42 +2449,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>提交id</t>
   </si>
@@ -339,6 +339,9 @@
   <si>
     <t>第20题
 [如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
+    <t>21-1检查人员针对本次检查的门店有何优化建议（开放题）</t>
   </si>
   <si>
     <t>&lt;jx:forEach items="${list}" var="li" varStatus="status"&gt;</t>
@@ -685,6 +688,9 @@
     <t>${li.topic20Fraction}</t>
   </si>
   <si>
+    <t>${li.topic39Six}</t>
+  </si>
+  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
@@ -729,10 +735,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -758,9 +764,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,8 +830,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,117 +912,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -922,13 +928,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,73 +1078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,91 +1102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,6 +1150,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1155,6 +1185,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,75 +1247,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,136 +1265,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1765,10 +1771,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DA4"/>
+  <dimension ref="A1:DB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="DA6" sqref="DA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1781,7 +1787,7 @@
     <col min="102" max="103" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:105">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:106">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2096,330 +2102,336 @@
       </c>
       <c r="DA1" s="7" t="s">
         <v>104</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:105">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:106">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2449,42 +2461,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>提交id</t>
   </si>
@@ -127,6 +127,13 @@
     <t>3-3不符合要求的原因是？(多选）</t>
   </si>
   <si>
+    <t>3-3得分</t>
+  </si>
+  <si>
+    <t>第3题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>4-1商品陈列是否符合要求？(单选）</t>
   </si>
   <si>
@@ -136,6 +143,13 @@
     <t>4-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
+    <t>4-3得分</t>
+  </si>
+  <si>
+    <t>第4题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>5-1仪表仪容是否符合要求？(单选）</t>
   </si>
   <si>
@@ -145,6 +159,13 @@
     <t>5-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
+    <t>5-3得分</t>
+  </si>
+  <si>
+    <t>第5题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>6-1行为规范是否符合要求？(单选）</t>
   </si>
   <si>
@@ -154,6 +175,13 @@
     <t>6-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
+    <t>6-3得分</t>
+  </si>
+  <si>
+    <t>第6题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>7-1接待礼仪是否符合要求？(单选）</t>
   </si>
   <si>
@@ -163,6 +191,13 @@
     <t>7-2不符合要求的原因是？(多选）</t>
   </si>
   <si>
+    <t>7-3得分</t>
+  </si>
+  <si>
+    <t>第7题
+[如系统可计算，就直接计算出分数]</t>
+  </si>
+  <si>
     <t>8-1接待礼仪是否符合要求？(单选）</t>
   </si>
   <si>
@@ -175,10 +210,10 @@
     <t>9-1接待礼仪是否符合要求？(单选）</t>
   </si>
   <si>
-    <t>9-2不符合要求的原因是？(多选）</t>
-  </si>
-  <si>
-    <t>9-2分值</t>
+    <t>9-1分值</t>
+  </si>
+  <si>
+    <t>9-1不符合要求的原因是？(多选）</t>
   </si>
   <si>
     <t>10-1销售人员的销售能力是否符合要求？(单选）</t>
@@ -481,6 +516,12 @@
     <t>${li.topic3Two}</t>
   </si>
   <si>
+    <t>${li.th3sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic3Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic4One}</t>
   </si>
   <si>
@@ -490,6 +531,12 @@
     <t>${li.topic4Two}</t>
   </si>
   <si>
+    <t>${li.th4sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic4Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic5One}</t>
   </si>
   <si>
@@ -499,6 +546,12 @@
     <t>${li.topic5Two}</t>
   </si>
   <si>
+    <t>${li.th5sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic5Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic6One}</t>
   </si>
   <si>
@@ -508,6 +561,12 @@
     <t>${li.topic6Two}</t>
   </si>
   <si>
+    <t>${li.th6sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic6Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic7One}</t>
   </si>
   <si>
@@ -517,6 +576,12 @@
     <t>${li.topic7Two}</t>
   </si>
   <si>
+    <t>${li.th7sorce}</t>
+  </si>
+  <si>
+    <t>${li.topic7Fraction}</t>
+  </si>
+  <si>
     <t>${li.topic8One}</t>
   </si>
   <si>
@@ -529,10 +594,10 @@
     <t>${li.topic9One}</t>
   </si>
   <si>
+    <t>${li.th9mark}</t>
+  </si>
+  <si>
     <t>${li.topic9Two}</t>
-  </si>
-  <si>
-    <t>${li.th9mark}</t>
   </si>
   <si>
     <t>${li.topic10One}</t>
@@ -735,9 +800,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -772,24 +837,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,9 +887,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,27 +916,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,21 +935,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -899,15 +944,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,187 +993,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,6 +1218,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1170,6 +1259,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,17 +1298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1223,40 +1312,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,136 +1330,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,23 +1836,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DB4"/>
+  <dimension ref="A1:DL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
-      <selection activeCell="DA6" sqref="DA6"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BM7" sqref="BM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
     <col min="20" max="20" width="13.7777777777778" customWidth="1"/>
-    <col min="76" max="77" width="18.6666666666667" customWidth="1"/>
-    <col min="81" max="81" width="13.1111111111111" customWidth="1"/>
-    <col min="101" max="101" width="15.3333333333333" customWidth="1"/>
-    <col min="102" max="103" width="14.3333333333333" customWidth="1"/>
+    <col min="86" max="87" width="18.6666666666667" customWidth="1"/>
+    <col min="91" max="91" width="13.1111111111111" customWidth="1"/>
+    <col min="111" max="111" width="15.3333333333333" customWidth="1"/>
+    <col min="112" max="113" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:106">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:116">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1899,37 +1964,37 @@
       <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AW1" s="8" t="s">
@@ -1944,34 +2009,34 @@
       <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="8" t="s">
@@ -1980,7 +2045,7 @@
       <c r="BL1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="8" t="s">
         <v>64</v>
       </c>
       <c r="BN1" s="6" t="s">
@@ -1989,19 +2054,19 @@
       <c r="BO1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BS1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="6" t="s">
         <v>71</v>
       </c>
       <c r="BU1" s="8" t="s">
@@ -2010,428 +2075,488 @@
       <c r="BV1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="6" t="s">
         <v>74</v>
       </c>
       <c r="BX1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BY1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CC1" s="6" t="s">
         <v>80</v>
       </c>
       <c r="CD1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CE1" s="8" t="s">
         <v>82</v>
       </c>
       <c r="CF1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="7" t="s">
         <v>84</v>
       </c>
       <c r="CH1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CI1" s="6" t="s">
         <v>86</v>
       </c>
       <c r="CJ1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CK1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CM1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CN1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CP1" s="8" t="s">
         <v>93</v>
       </c>
       <c r="CQ1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CS1" s="7" t="s">
         <v>96</v>
       </c>
       <c r="CT1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CU1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CV1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CW1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CX1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="6" t="s">
+      <c r="CY1" s="8" t="s">
         <v>102</v>
       </c>
       <c r="CZ1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DA1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB1" s="8" t="s">
         <v>105</v>
+      </c>
+      <c r="DC1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:106">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:116">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2461,42 +2586,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
+++ b/backstage-manager/backstage-web/src/main/resources/excel/rout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="6" r:id="rId1"/>
@@ -15,12 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>提交id</t>
   </si>
   <si>
     <t>提交时间</t>
+  </si>
+  <si>
+    <t>门店申诉</t>
+  </si>
+  <si>
+    <t>总公司批复</t>
+  </si>
+  <si>
+    <t>审核人员回复</t>
   </si>
   <si>
     <t>子公司</t>
@@ -386,6 +395,15 @@
   </si>
   <si>
     <t>${li.crerttime}</t>
+  </si>
+  <si>
+    <t>${li.qcheck}</t>
+  </si>
+  <si>
+    <t>${li.qchecksn}</t>
+  </si>
+  <si>
+    <t>${li.qcheckinput}</t>
   </si>
   <si>
     <t>${li.company}</t>
@@ -801,9 +819,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -837,14 +855,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +907,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,49 +943,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -937,30 +969,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,8 +988,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,13 +1011,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,169 +1167,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,30 +1236,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1259,17 +1253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,8 +1275,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,154 +1295,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1836,23 +1854,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DL4"/>
+  <dimension ref="A1:DO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BM7" sqref="BM7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="20" max="20" width="13.7777777777778" customWidth="1"/>
-    <col min="86" max="87" width="18.6666666666667" customWidth="1"/>
-    <col min="91" max="91" width="13.1111111111111" customWidth="1"/>
-    <col min="111" max="111" width="15.3333333333333" customWidth="1"/>
-    <col min="112" max="113" width="14.3333333333333" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="23" max="23" width="13.7777777777778" customWidth="1"/>
+    <col min="89" max="90" width="18.6666666666667" customWidth="1"/>
+    <col min="94" max="94" width="13.1111111111111" customWidth="1"/>
+    <col min="114" max="114" width="15.3333333333333" customWidth="1"/>
+    <col min="115" max="116" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:116">
+    <row r="1" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:119">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1910,16 +1928,16 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="6" t="s">
@@ -1928,16 +1946,16 @@
       <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="8" t="s">
@@ -1946,16 +1964,16 @@
       <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" s="6" t="s">
@@ -1964,7 +1982,7 @@
       <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="6" t="s">
@@ -1973,73 +1991,73 @@
       <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
       <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="7" t="s">
         <v>55</v>
       </c>
       <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="6" t="s">
         <v>57</v>
       </c>
       <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="BL1" s="8" t="s">
@@ -2048,7 +2066,7 @@
       <c r="BM1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="8" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="8" t="s">
@@ -2060,7 +2078,7 @@
       <c r="BQ1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BR1" s="8" t="s">
         <v>69</v>
       </c>
       <c r="BS1" s="8" t="s">
@@ -2069,7 +2087,7 @@
       <c r="BT1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BU1" s="7" t="s">
         <v>72</v>
       </c>
       <c r="BV1" s="8" t="s">
@@ -2078,7 +2096,7 @@
       <c r="BW1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" s="8" t="s">
         <v>75</v>
       </c>
       <c r="BY1" s="8" t="s">
@@ -2087,7 +2105,7 @@
       <c r="BZ1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="6" t="s">
         <v>78</v>
       </c>
       <c r="CB1" s="8" t="s">
@@ -2102,28 +2120,28 @@
       <c r="CE1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CH1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CI1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="CL1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CM1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="CN1" s="8" t="s">
@@ -2132,7 +2150,7 @@
       <c r="CO1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CP1" s="7" t="s">
         <v>93</v>
       </c>
       <c r="CQ1" s="8" t="s">
@@ -2141,7 +2159,7 @@
       <c r="CR1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CS1" s="8" t="s">
         <v>96</v>
       </c>
       <c r="CT1" s="8" t="s">
@@ -2150,13 +2168,13 @@
       <c r="CU1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CV1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="6" t="s">
+      <c r="CW1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CX1" s="6" t="s">
         <v>101</v>
       </c>
       <c r="CY1" s="8" t="s">
@@ -2165,7 +2183,7 @@
       <c r="CZ1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DA1" s="7" t="s">
         <v>104</v>
       </c>
       <c r="DB1" s="8" t="s">
@@ -2183,7 +2201,7 @@
       <c r="DF1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DG1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="DH1" s="8" t="s">
@@ -2192,371 +2210,389 @@
       <c r="DI1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="6" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DK1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DL1" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="DM1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:116">
+    <row r="3" s="1" customFormat="1" ht="66.75" customHeight="1" spans="1:119">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W3" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="X3" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2586,42 +2622,42 @@
   <sheetData>
     <row r="9" spans="6:11">
       <c r="F9" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="6:11">
       <c r="F12" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
